--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71538467-DDF9-4941-920E-A16F9260456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91329CA-724F-48B4-B8FD-6876A4D3132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="322">
   <si>
     <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rare</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>初始可用属性点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -630,10 +626,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天选之人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>所有属性+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -674,10 +666,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>初始可用属性点+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>超凡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -934,10 +922,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一个小盒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>100岁时才能开启</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -974,11 +958,310 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>三十而立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十不惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁时家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50岁时智力、快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从心所欲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老当益壮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时体质+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤发童颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学前启蒙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟来之财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90岁时家境+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>condition</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[40]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[50]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[60]</t>
+  </si>
+  <si>
+    <t>age?[60]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[70]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[18]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[90]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30、40、50岁时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[30,40,50]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、18岁时智力+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[12,18]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形象管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、24岁时颜值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age?[16,24]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成年礼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开光之胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖传药丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的小盒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能不明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵人相助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境为0时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐天派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐为0时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质为0时体质+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命悬一线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智可生财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若20岁时智力&gt;8，家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(age?[20])&amp;(INT&gt;8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舔狗甚多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若20岁时颜值&gt;8，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(age?[20])&amp;(CHR&gt;8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +1269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,6 +1313,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1063,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,6 +1362,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1358,7 +1651,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1366,52 +1659,53 @@
     <col min="1" max="1" width="25.4140625" style="3"/>
     <col min="2" max="2" width="27.4140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="33" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.9140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.08203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="3" customWidth="1"/>
     <col min="7" max="11" width="13.58203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.4140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.9140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.9140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.58203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="25.4140625" style="3"/>
+    <col min="12" max="12" width="11" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.4140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.9140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.9140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.58203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="25.4140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1425,28 +1719,28 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1454,10 +1748,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
@@ -1468,10 +1762,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -1482,10 +1776,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>0</v>
@@ -1493,13 +1787,13 @@
     </row>
     <row r="6" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>0</v>
@@ -1507,13 +1801,13 @@
     </row>
     <row r="7" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -1521,13 +1815,13 @@
     </row>
     <row r="8" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
@@ -1538,13 +1832,13 @@
     </row>
     <row r="9" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>0</v>
@@ -1555,30 +1849,30 @@
     </row>
     <row r="10" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>0</v>
@@ -1589,298 +1883,298 @@
     </row>
     <row r="12" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>5</v>
@@ -1888,650 +2182,971 @@
     </row>
     <row r="31" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="B51" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="B52" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="B53" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="B54" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="B56" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="B57" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="B59" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="B60" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="B61" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="B62" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="B63" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="B64" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="B65" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="B66" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="B67" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="B68" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="B69" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="B70" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="B71" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="B72" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91329CA-724F-48B4-B8FD-6876A4D3132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A3E1FC-D63A-4DF1-A20A-2DAF8556268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -90,15 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="322">
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="297">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -538,10 +526,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>天生抑郁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -550,10 +534,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>天龙人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -570,10 +550,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>乡间微风</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -590,10 +566,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>你有美国国籍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -630,10 +602,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>额外家境</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -754,10 +722,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>早产儿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -766,14 +730,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>体质-10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -806,10 +762,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>班中红人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -834,10 +786,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可能和同性交往</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -906,10 +854,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>白头偕老</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -918,10 +862,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>100岁时才能开启</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -962,14 +902,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>四十不惑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -990,10 +922,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>耳顺</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1010,10 +938,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>老当益壮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1054,10 +978,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>condition</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1109,10 +1029,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>age?[30,40,50]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1125,10 +1041,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>age?[12,18]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1161,10 +1073,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>初始可用属性点+4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1177,10 +1085,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>开光之胎</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1242,10 +1146,6 @@
   </si>
   <si>
     <t>(age?[20])&amp;(INT&gt;8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1355,16 +1255,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1650,1503 +1550,1527 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.4140625" style="3"/>
-    <col min="2" max="2" width="27.4140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.9140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="3" customWidth="1"/>
-    <col min="7" max="11" width="13.58203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.4140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.9140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.9140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.58203125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="25.4140625" style="3"/>
+    <col min="1" max="1" width="25.44140625" style="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="13.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="25.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C64" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C64" s="3" t="s">
+    </row>
+    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="D72" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+    </row>
+    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    </row>
+    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+    </row>
+    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+    <row r="81" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+    <row r="82" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+    <row r="83" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+    <row r="84" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+    <row r="85" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+    <row r="86" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+    <row r="87" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+    <row r="88" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+    <row r="89" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+    <row r="90" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+    <row r="91" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+    <row r="92" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+    <row r="93" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+    <row r="94" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+    <row r="95" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+    <row r="96" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+    <row r="97" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+    <row r="98" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+    <row r="99" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+    <row r="100" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+    <row r="101" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+    <row r="102" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+    <row r="103" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
+    <row r="104" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+    <row r="105" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+    <row r="106" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+    <row r="107" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+    <row r="108" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+    <row r="109" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+    <row r="110" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+    <row r="111" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+    <row r="112" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+    <row r="113" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+    <row r="114" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+    <row r="115" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+    <row r="116" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+    <row r="117" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
+    <row r="118" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
+    <row r="119" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+    <row r="120" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A3E1FC-D63A-4DF1-A20A-2DAF8556268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E450A7-9B0A-4128-8A50-A208F1BDFC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="298">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -986,41 +986,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>age?[30]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>age?[40]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>age?[50]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>age?[60]</t>
-  </si>
-  <si>
-    <t>age?[60]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>age?[70]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>age?[5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>age?[18]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>age?[90]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>理财达人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1029,10 +994,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>age?[30,40,50]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成熟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1041,10 +1002,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>age?[12,18]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>形象管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1053,10 +1010,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>age?[16,24]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成年礼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1145,10 +1098,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(age?[20])&amp;(INT&gt;8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>舔狗甚多</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1157,12 +1106,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(age?[20])&amp;(CHR&gt;8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>grade</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保胎丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会胎死腹中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[30]</t>
+  </si>
+  <si>
+    <t>AGE?[40]</t>
+  </si>
+  <si>
+    <t>AGE?[50]</t>
+  </si>
+  <si>
+    <t>AGE?[60]</t>
+  </si>
+  <si>
+    <t>AGE?[70]</t>
+  </si>
+  <si>
+    <t>AGE?[5]</t>
+  </si>
+  <si>
+    <t>AGE?[18]</t>
+  </si>
+  <si>
+    <t>AGE?[90]</t>
+  </si>
+  <si>
+    <t>AGE?[30,40,50]</t>
+  </si>
+  <si>
+    <t>AGE?[12,18]</t>
+  </si>
+  <si>
+    <t>AGE?[16,24]</t>
+  </si>
+  <si>
+    <t>(AGE?[20])&amp;(INT&gt;8)</t>
+  </si>
+  <si>
+    <t>(AGE?[20])&amp;(CHR&gt;8)</t>
   </si>
 </sst>
 </file>
@@ -1550,8 +1542,8 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1579,7 @@
         <v>250</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -1901,7 +1893,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>155</v>
@@ -1933,7 +1925,7 @@
         <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2393,7 +2385,7 @@
         <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>221</v>
@@ -2413,7 +2405,7 @@
         <v>232</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -2433,7 +2425,7 @@
         <v>233</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -2453,7 +2445,7 @@
         <v>235</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -2476,7 +2468,7 @@
         <v>237</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -2496,7 +2488,7 @@
         <v>239</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -2516,7 +2508,7 @@
         <v>241</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -2536,7 +2528,7 @@
         <v>243</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2556,7 +2548,7 @@
         <v>245</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2576,7 +2568,7 @@
         <v>247</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -2596,7 +2588,7 @@
         <v>249</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2610,13 +2602,13 @@
         <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -2630,13 +2622,13 @@
         <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2650,13 +2642,13 @@
         <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2670,13 +2662,13 @@
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -2690,10 +2682,10 @@
         <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -2707,10 +2699,10 @@
         <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -2724,10 +2716,10 @@
         <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -2738,13 +2730,13 @@
         <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -2758,13 +2750,13 @@
         <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -2778,13 +2770,13 @@
         <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -2798,13 +2790,13 @@
         <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -2818,13 +2810,13 @@
         <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -2836,6 +2828,15 @@
     <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E450A7-9B0A-4128-8A50-A208F1BDFC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D0A6AA-94F0-4B47-9E2C-1602D1D0041D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="372">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1062,10 +1062,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MNY&lt;1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>乐天派</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1074,18 +1070,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SPR&lt;1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>体质为0时体质+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>STR&lt;1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>命悬一线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1155,13 +1143,319 @@
   </si>
   <si>
     <t>(AGE?[20])&amp;(CHR&gt;8)</t>
+  </si>
+  <si>
+    <t>你不会遭遇枪击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白化病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考上哈佛大学的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界限突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时体质+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练有方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相由心生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智多鑫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+2</t>
+  </si>
+  <si>
+    <t>灵光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用点-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点-3，快乐+5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石健身卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时体质+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身残志坚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活死人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开一扇窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痘痘脸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦痛侍僧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+2</t>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,6 +1506,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1245,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,6 +1558,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,8 +1846,8 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1883,7 @@
         <v>250</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -2405,7 +2709,7 @@
         <v>232</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -2425,7 +2729,7 @@
         <v>233</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -2445,7 +2749,7 @@
         <v>235</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -2468,7 +2772,7 @@
         <v>237</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -2488,7 +2792,7 @@
         <v>239</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -2508,7 +2812,7 @@
         <v>241</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -2528,7 +2832,7 @@
         <v>243</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2548,7 +2852,7 @@
         <v>245</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2568,7 +2872,7 @@
         <v>247</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -2588,7 +2892,7 @@
         <v>249</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2608,7 +2912,7 @@
         <v>253</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -2628,7 +2932,7 @@
         <v>255</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2648,7 +2952,7 @@
         <v>257</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2668,7 +2972,7 @@
         <v>259</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -2736,7 +3040,7 @@
         <v>270</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -2750,13 +3054,13 @@
         <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -2770,13 +3074,13 @@
         <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -2790,13 +3094,13 @@
         <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -2810,13 +3114,13 @@
         <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -2830,10 +3134,10 @@
         <v>85</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -2843,193 +3147,754 @@
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1">
+        <v>2</v>
+      </c>
+      <c r="J84" s="1">
+        <v>2</v>
+      </c>
+      <c r="K84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>3</v>
+      </c>
+      <c r="I85" s="1">
+        <v>3</v>
+      </c>
+      <c r="J85" s="1">
+        <v>3</v>
+      </c>
+      <c r="K85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G87" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="K92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1">
+        <v>2</v>
+      </c>
+      <c r="K93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1">
+        <v>2</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1">
+        <v>2</v>
+      </c>
+      <c r="J100" s="1">
+        <v>2</v>
+      </c>
+      <c r="K100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2</v>
+      </c>
+      <c r="H101" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>2</v>
+      </c>
+      <c r="H104" s="1">
+        <v>2</v>
+      </c>
+      <c r="I104" s="1">
+        <v>2</v>
+      </c>
+      <c r="J104" s="1">
+        <v>2</v>
+      </c>
+      <c r="K104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D0A6AA-94F0-4B47-9E2C-1602D1D0041D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F982F1D-BBE1-4E1F-8701-16A3046716A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="383">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1054,10 +1054,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贵人相助</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>家境为0时家境+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1448,6 +1444,54 @@
   </si>
   <si>
     <t>超进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准扶贫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20、30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你10岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[20,30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的40~50岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康饮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不吃洋快餐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1846,8 +1890,8 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1927,7 @@
         <v>250</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -2709,7 +2753,7 @@
         <v>232</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -2729,7 +2773,7 @@
         <v>233</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -2749,7 +2793,7 @@
         <v>235</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -2772,7 +2816,7 @@
         <v>237</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -2792,7 +2836,7 @@
         <v>239</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -2812,7 +2856,7 @@
         <v>241</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -2832,7 +2876,7 @@
         <v>243</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2852,7 +2896,7 @@
         <v>245</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2872,7 +2916,7 @@
         <v>247</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -2892,7 +2936,7 @@
         <v>249</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2912,7 +2956,7 @@
         <v>253</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -2932,7 +2976,7 @@
         <v>255</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2952,7 +2996,7 @@
         <v>257</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2972,7 +3016,7 @@
         <v>259</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3034,13 +3078,13 @@
         <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3054,13 +3098,13 @@
         <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3074,13 +3118,13 @@
         <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3094,13 +3138,13 @@
         <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3114,13 +3158,13 @@
         <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -3134,10 +3178,10 @@
         <v>85</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -3148,10 +3192,10 @@
         <v>86</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -3162,10 +3206,10 @@
         <v>87</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3176,13 +3220,13 @@
         <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -3196,13 +3240,13 @@
         <v>89</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3216,13 +3260,13 @@
         <v>90</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -3236,13 +3280,13 @@
         <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -3256,13 +3300,13 @@
         <v>92</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3276,13 +3320,13 @@
         <v>93</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3296,13 +3340,13 @@
         <v>94</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3316,13 +3360,13 @@
         <v>95</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3345,13 +3389,13 @@
         <v>96</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3374,13 +3418,13 @@
         <v>97</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -3403,10 +3447,10 @@
         <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3423,10 +3467,10 @@
         <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3443,10 +3487,10 @@
         <v>100</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3460,13 +3504,13 @@
         <v>101</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -3480,13 +3524,13 @@
         <v>102</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -3500,13 +3544,13 @@
         <v>103</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -3520,13 +3564,13 @@
         <v>104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -3549,13 +3593,13 @@
         <v>105</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -3578,13 +3622,13 @@
         <v>106</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -3607,10 +3651,10 @@
         <v>107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -3627,10 +3671,10 @@
         <v>108</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -3644,13 +3688,13 @@
         <v>109</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -3673,13 +3717,13 @@
         <v>110</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -3702,13 +3746,13 @@
         <v>111</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -3731,13 +3775,13 @@
         <v>112</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -3760,10 +3804,10 @@
         <v>113</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -3780,10 +3824,10 @@
         <v>114</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -3800,13 +3844,13 @@
         <v>115</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -3832,13 +3876,13 @@
         <v>116</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -3863,20 +3907,65 @@
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="B105" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="B106" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F982F1D-BBE1-4E1F-8701-16A3046716A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEB8545-5A7E-4942-9361-B0347271C9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>84694</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{F13F5F22-BDEB-4992-9B66-ED7757A7DEBD}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{F13F5F22-BDEB-4992-9B66-ED7757A7DEBD}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{CFC59F7C-A7E9-4DCF-A179-85D48981585F}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{CFC59F7C-A7E9-4DCF-A179-85D48981585F}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="397">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -822,10 +822,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你的家人不会发生车祸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>老司机</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1492,6 +1488,66 @@
   </si>
   <si>
     <t>你不吃洋快餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想罢了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会上清华大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢没事找事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和家人不会发生车祸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢旅游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你比较自恋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺一门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可能听到一些绝密消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异界来客</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1590,7 +1646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1605,6 +1661,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1887,103 +1952,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.4140625" style="1"/>
+    <col min="2" max="2" width="27.4140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="13.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.9140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="14" width="13.58203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.4140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.9140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="25.44140625" style="1"/>
+    <col min="19" max="19" width="8.9140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.58203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="25.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1993,11 +2078,11 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2007,11 +2092,11 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2021,11 +2106,20 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="6">
+        <v>1004</v>
+      </c>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1025</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2035,11 +2129,20 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="6">
+        <v>1003</v>
+      </c>
       <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1025</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2049,11 +2152,12 @@
       <c r="C7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,14 +2167,15 @@
       <c r="C8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -2080,14 +2185,15 @@
       <c r="C9" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,14 +2203,15 @@
       <c r="C10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="D10" s="6"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2114,14 +2221,15 @@
       <c r="C11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2131,11 +2239,12 @@
       <c r="C12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2145,11 +2254,12 @@
       <c r="C13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="6"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2159,11 +2269,20 @@
       <c r="C14" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="D14" s="6">
+        <v>1013</v>
+      </c>
       <c r="E14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1010</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2173,11 +2292,20 @@
       <c r="C15" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="D15" s="6">
+        <v>1010</v>
+      </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2187,14 +2315,23 @@
       <c r="C16" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="D16" s="6">
+        <v>1010</v>
+      </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1012</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1013</v>
       </c>
       <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2204,11 +2341,11 @@
       <c r="C17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2218,11 +2355,11 @@
       <c r="C18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2232,31 +2369,22 @@
       <c r="C19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
       <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -2264,8 +2392,17 @@
       <c r="K20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2273,16 +2410,16 @@
         <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
+        <v>261</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -2292,14 +2429,14 @@
       <c r="C22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2309,17 +2446,17 @@
       <c r="C23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2329,11 +2466,11 @@
       <c r="C24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2343,26 +2480,26 @@
       <c r="C25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="1">
+      <c r="H25" s="1">
         <v>3</v>
       </c>
-      <c r="G25" s="1">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2</v>
-      </c>
       <c r="J25" s="1">
         <v>2</v>
       </c>
       <c r="K25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2372,11 +2509,20 @@
       <c r="C26" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="D26" s="6">
+        <v>1003</v>
+      </c>
       <c r="E26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1025</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -2386,11 +2532,20 @@
       <c r="C27" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="D27" s="6">
+        <v>1003</v>
+      </c>
       <c r="E27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1004</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -2400,11 +2555,11 @@
       <c r="C28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -2414,11 +2569,11 @@
       <c r="C29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -2428,11 +2583,11 @@
       <c r="C30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2442,11 +2597,11 @@
       <c r="C31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2456,11 +2611,11 @@
       <c r="C32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2470,14 +2625,14 @@
       <c r="C33" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2487,17 +2642,8 @@
       <c r="C34" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>-1</v>
-      </c>
       <c r="H34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
         <v>-1</v>
@@ -2505,8 +2651,17 @@
       <c r="K34" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -2516,14 +2671,14 @@
       <c r="C35" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2533,14 +2688,14 @@
       <c r="C36" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
       <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2550,14 +2705,14 @@
       <c r="C37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -2567,14 +2722,14 @@
       <c r="C38" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2584,11 +2739,11 @@
       <c r="C39" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -2598,11 +2753,11 @@
       <c r="C40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -2612,11 +2767,11 @@
       <c r="C41" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -2626,11 +2781,11 @@
       <c r="C42" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -2640,11 +2795,11 @@
       <c r="C43" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -2654,990 +2809,984 @@
       <c r="C44" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" s="1">
+        <v>220</v>
+      </c>
+      <c r="H50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="H51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1">
+      <c r="G55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1">
+      <c r="G57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="K58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="I59" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
+      <c r="G60" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
+      <c r="G61" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="H61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="K62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="I63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E66" s="1">
+        <v>260</v>
+      </c>
+      <c r="H66" s="1">
         <v>3</v>
       </c>
-      <c r="F66" s="1">
+      <c r="I66" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="H68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0</v>
+      <c r="G71" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="H71" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="I77" s="1">
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D78" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E78" s="1">
-        <v>0</v>
-      </c>
-      <c r="G78" s="1">
+      <c r="G78" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-      <c r="J80" s="1">
+        <v>308</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E81" s="1">
-        <v>0</v>
-      </c>
-      <c r="I81" s="1">
+      <c r="G81" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0</v>
+        <v>312</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0</v>
+        <v>314</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="H83" s="1">
-        <v>1</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1</v>
-      </c>
-      <c r="J83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
       <c r="H84" s="1">
-        <v>2</v>
-      </c>
-      <c r="I84" s="1">
-        <v>2</v>
-      </c>
-      <c r="J84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="1">
+        <v>2</v>
+      </c>
+      <c r="M84" s="1">
+        <v>2</v>
+      </c>
+      <c r="N84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E85" s="1">
-        <v>2</v>
+        <v>319</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="H85" s="1">
-        <v>3</v>
-      </c>
-      <c r="I85" s="1">
-        <v>3</v>
-      </c>
-      <c r="J85" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K85" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="1">
+        <v>3</v>
+      </c>
+      <c r="M85" s="1">
+        <v>3</v>
+      </c>
+      <c r="N85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1">
+        <v>324</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
         <v>-2</v>
       </c>
-      <c r="G86" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1">
+        <v>325</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1">
         <v>-3</v>
       </c>
-      <c r="G87" s="1">
+      <c r="J87" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E88" s="1">
-        <v>0</v>
-      </c>
-      <c r="F88" s="1">
+        <v>322</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
         <v>-10</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E89" s="1">
-        <v>0</v>
-      </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0</v>
-      </c>
-      <c r="I90" s="1">
+      <c r="G90" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0</v>
-      </c>
-      <c r="J91" s="1">
+      <c r="G91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1">
-        <v>1</v>
-      </c>
       <c r="H92" s="1">
-        <v>1</v>
-      </c>
-      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
         <v>1</v>
       </c>
       <c r="K92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E93" s="1">
-        <v>1</v>
-      </c>
-      <c r="G93" s="1">
-        <v>2</v>
+        <v>340</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="H93" s="1">
-        <v>2</v>
-      </c>
-      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
         <v>2</v>
       </c>
       <c r="K93" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L93" s="1">
+        <v>2</v>
+      </c>
+      <c r="N93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E94" s="1">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1">
-        <v>1</v>
-      </c>
       <c r="H94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -3645,224 +3794,221 @@
       <c r="K94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="1">
+        <v>1</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E95" s="1">
-        <v>0</v>
-      </c>
-      <c r="I95" s="1">
+        <v>345</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
         <v>-2</v>
       </c>
-      <c r="K95" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E96" s="1">
-        <v>0</v>
-      </c>
-      <c r="I96" s="1">
+        <v>346</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1">
-        <v>1</v>
-      </c>
-      <c r="I97" s="1">
-        <v>1</v>
+      <c r="H97" s="1">
+        <v>0</v>
       </c>
       <c r="J97" s="1">
         <v>1</v>
       </c>
-      <c r="K97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E98" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="H98" s="1">
-        <v>1</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>1</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E99" s="1">
-        <v>1</v>
-      </c>
       <c r="H99" s="1">
-        <v>2</v>
-      </c>
-      <c r="I99" s="1">
-        <v>2</v>
-      </c>
-      <c r="J99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L99" s="1">
+        <v>2</v>
+      </c>
+      <c r="M99" s="1">
+        <v>2</v>
+      </c>
+      <c r="N99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E100" s="1">
-        <v>1</v>
-      </c>
-      <c r="G100" s="1">
-        <v>2</v>
-      </c>
-      <c r="I100" s="1">
-        <v>2</v>
+      <c r="H100" s="1">
+        <v>1</v>
       </c>
       <c r="J100" s="1">
         <v>2</v>
       </c>
-      <c r="K100" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="1">
+        <v>2</v>
+      </c>
+      <c r="M100" s="1">
+        <v>2</v>
+      </c>
+      <c r="N100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <v>2</v>
-      </c>
       <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>2</v>
+      </c>
+      <c r="K101" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E102" s="1">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
+      <c r="H102" s="1">
+        <v>0</v>
       </c>
       <c r="I102" s="1">
+        <v>1</v>
+      </c>
+      <c r="L102" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1">
-        <v>1</v>
-      </c>
       <c r="H103" s="1">
-        <v>1</v>
-      </c>
-      <c r="I103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -3870,31 +4016,31 @@
       <c r="K103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D104" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E104" s="1">
-        <v>1</v>
-      </c>
-      <c r="G104" s="1">
-        <v>2</v>
+      <c r="G104" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="H104" s="1">
-        <v>2</v>
-      </c>
-      <c r="I104" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" s="1">
         <v>2</v>
@@ -3902,128 +4048,191 @@
       <c r="K104" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
+      <c r="M104" s="1">
+        <v>2</v>
+      </c>
+      <c r="N104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E106" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[Document]\tencent files\1281616438\filerecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEB8545-5A7E-4942-9361-B0347271C9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF59B41B-770C-4D6D-99BB-64BDDE481967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>84694</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{F13F5F22-BDEB-4992-9B66-ED7757A7DEBD}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{F13F5F22-BDEB-4992-9B66-ED7757A7DEBD}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{CFC59F7C-A7E9-4DCF-A179-85D48981585F}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{CFC59F7C-A7E9-4DCF-A179-85D48981585F}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="404">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1548,6 +1548,34 @@
   </si>
   <si>
     <t>异界来客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1956,7 +1984,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1964,20 +1992,15 @@
     <col min="1" max="1" width="25.4140625" style="1"/>
     <col min="2" max="2" width="27.4140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.9140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
-    <col min="10" max="14" width="13.58203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.4140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.9140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.9140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.58203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="25.4140625" style="1"/>
+    <col min="4" max="4" width="20.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="13.58203125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="18.9140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.9140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.58203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="25.4140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1990,38 +2013,38 @@
       <c r="C1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -2034,38 +2057,38 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -2078,7 +2101,7 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2092,7 +2115,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2106,17 +2129,17 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6">
-        <v>1004</v>
-      </c>
       <c r="E5" s="1">
-        <v>1024</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1025</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -2129,17 +2152,17 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6">
-        <v>1003</v>
-      </c>
       <c r="E6" s="1">
-        <v>1024</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1025</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -2152,8 +2175,7 @@
       <c r="C7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="H7" s="1">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2167,11 +2189,10 @@
       <c r="C8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2185,11 +2206,10 @@
       <c r="C9" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2203,11 +2223,10 @@
       <c r="C10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>-3</v>
       </c>
     </row>
@@ -2221,11 +2240,10 @@
       <c r="C11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2239,9 +2257,17 @@
       <c r="C12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="H12" s="1">
-        <v>2</v>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -2254,8 +2280,7 @@
       <c r="C13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="H13" s="1">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2269,17 +2294,17 @@
       <c r="C14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="6">
-        <v>1013</v>
-      </c>
       <c r="E14" s="1">
-        <v>1014</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1010</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -2292,17 +2317,17 @@
       <c r="C15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="6">
-        <v>1010</v>
-      </c>
       <c r="E15" s="1">
-        <v>1012</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -2315,20 +2340,20 @@
       <c r="C16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="6">
-        <v>1010</v>
-      </c>
       <c r="E16" s="1">
-        <v>1012</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1013</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1">
         <v>3</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -2341,7 +2366,7 @@
       <c r="C17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="1">
+      <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2355,7 +2380,7 @@
       <c r="C18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H18" s="1">
+      <c r="E18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2369,7 +2394,7 @@
       <c r="C19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="1">
+      <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2383,22 +2408,22 @@
       <c r="C20" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2412,10 +2437,10 @@
       <c r="C21" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H21" s="1">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2429,10 +2454,10 @@
       <c r="C22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2446,13 +2471,13 @@
       <c r="C23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>2</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
         <v>-2</v>
       </c>
     </row>
@@ -2466,7 +2491,7 @@
       <c r="C24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H24" s="1">
+      <c r="E24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2480,22 +2505,22 @@
       <c r="C25" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
       <c r="H25" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
       </c>
       <c r="K25" s="1">
-        <v>2</v>
-      </c>
-      <c r="L25" s="1">
-        <v>2</v>
-      </c>
-      <c r="M25" s="1">
-        <v>2</v>
-      </c>
-      <c r="N25" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2509,17 +2534,17 @@
       <c r="C26" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="6">
-        <v>1003</v>
-      </c>
       <c r="E26" s="1">
-        <v>1004</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1025</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -2532,17 +2557,17 @@
       <c r="C27" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="6">
-        <v>1003</v>
-      </c>
       <c r="E27" s="1">
-        <v>1024</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1004</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -2555,7 +2580,7 @@
       <c r="C28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="1">
+      <c r="E28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2569,7 +2594,7 @@
       <c r="C29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H29" s="1">
+      <c r="E29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2583,7 +2608,7 @@
       <c r="C30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H30" s="1">
+      <c r="E30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2597,7 +2622,7 @@
       <c r="C31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="1">
+      <c r="E31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2611,11 +2636,11 @@
       <c r="C32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2625,14 +2650,14 @@
       <c r="C33" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2642,8 +2667,17 @@
       <c r="C34" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-1</v>
+      </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-1</v>
       </c>
       <c r="J34" s="1">
         <v>-1</v>
@@ -2651,17 +2685,8 @@
       <c r="K34" s="1">
         <v>-1</v>
       </c>
-      <c r="L34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -2671,14 +2696,14 @@
       <c r="C35" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2688,14 +2713,14 @@
       <c r="C36" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
       <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2705,14 +2730,14 @@
       <c r="C37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -2722,14 +2747,14 @@
       <c r="C38" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2739,11 +2764,11 @@
       <c r="C39" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -2753,11 +2778,11 @@
       <c r="C40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -2767,11 +2792,11 @@
       <c r="C41" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -2781,11 +2806,11 @@
       <c r="C42" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -2795,11 +2820,11 @@
       <c r="C43" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -2809,11 +2834,11 @@
       <c r="C44" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -2823,11 +2848,11 @@
       <c r="C45" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -2837,11 +2862,11 @@
       <c r="C46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -2851,11 +2876,11 @@
       <c r="C47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2865,11 +2890,11 @@
       <c r="C48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -2879,11 +2904,11 @@
       <c r="C49" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -2893,11 +2918,11 @@
       <c r="C50" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H50" s="1">
+      <c r="E50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,17 +2932,17 @@
       <c r="C51" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
       <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -2927,17 +2952,17 @@
       <c r="C52" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -2947,20 +2972,20 @@
       <c r="C53" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1</v>
-      </c>
-      <c r="N53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -2970,17 +2995,17 @@
       <c r="C54" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -2990,17 +3015,17 @@
       <c r="C55" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -3010,17 +3035,17 @@
       <c r="C56" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H56" s="1">
-        <v>1</v>
-      </c>
-      <c r="M56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -3030,17 +3055,17 @@
       <c r="C57" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -3050,17 +3075,17 @@
       <c r="C58" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H58" s="1">
-        <v>1</v>
-      </c>
-      <c r="N58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -3070,17 +3095,17 @@
       <c r="C59" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H59" s="1">
-        <v>1</v>
-      </c>
-      <c r="L59" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -3090,17 +3115,17 @@
       <c r="C60" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
       <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="K60" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -3110,17 +3135,17 @@
       <c r="C61" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>288</v>
       </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
       <c r="H61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -3130,17 +3155,17 @@
       <c r="C62" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
-      <c r="N62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -3150,17 +3175,17 @@
       <c r="C63" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H63" s="1">
-        <v>1</v>
-      </c>
-      <c r="L63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -3170,17 +3195,17 @@
       <c r="C64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -3190,14 +3215,14 @@
       <c r="C65" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H65" s="1">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -3207,14 +3232,14 @@
       <c r="C66" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H66" s="1">
+      <c r="E66" s="1">
         <v>3</v>
       </c>
-      <c r="I66" s="1">
+      <c r="F66" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -3224,11 +3249,11 @@
       <c r="C67" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -3238,17 +3263,17 @@
       <c r="C68" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
       <c r="H68" s="1">
-        <v>0</v>
-      </c>
-      <c r="K68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -3258,17 +3283,17 @@
       <c r="C69" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H69" s="1">
-        <v>1</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -3278,17 +3303,17 @@
       <c r="C70" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H70" s="1">
-        <v>0</v>
-      </c>
-      <c r="M70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -3298,17 +3323,17 @@
       <c r="C71" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>291</v>
       </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
       <c r="H71" s="1">
-        <v>0</v>
-      </c>
-      <c r="K71" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -3318,17 +3343,17 @@
       <c r="C72" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-      <c r="J72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -3338,11 +3363,11 @@
       <c r="C73" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -3352,11 +3377,11 @@
       <c r="C74" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
@@ -3366,11 +3391,11 @@
       <c r="C75" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -3380,17 +3405,17 @@
       <c r="C76" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H76" s="1">
-        <v>1</v>
-      </c>
-      <c r="J76" s="1">
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -3400,17 +3425,17 @@
       <c r="C77" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H77" s="1">
-        <v>0</v>
-      </c>
-      <c r="L77" s="1">
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -3420,17 +3445,17 @@
       <c r="C78" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H78" s="1">
-        <v>1</v>
-      </c>
-      <c r="J78" s="1">
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -3440,17 +3465,17 @@
       <c r="C79" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H79" s="1">
-        <v>1</v>
-      </c>
-      <c r="J79" s="1">
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -3460,17 +3485,17 @@
       <c r="C80" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H80" s="1">
-        <v>0</v>
-      </c>
-      <c r="M80" s="1">
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
@@ -3480,17 +3505,17 @@
       <c r="C81" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H81" s="1">
-        <v>0</v>
-      </c>
-      <c r="L81" s="1">
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
@@ -3500,17 +3525,17 @@
       <c r="C82" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>299</v>
       </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
       <c r="H82" s="1">
-        <v>0</v>
-      </c>
-      <c r="K82" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
@@ -3520,26 +3545,26 @@
       <c r="C83" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>316</v>
       </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
       <c r="H83" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1</v>
       </c>
       <c r="K83" s="1">
         <v>1</v>
       </c>
-      <c r="L83" s="1">
-        <v>1</v>
-      </c>
-      <c r="M83" s="1">
-        <v>1</v>
-      </c>
-      <c r="N83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
@@ -3549,26 +3574,26 @@
       <c r="C84" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>316</v>
       </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
       <c r="H84" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I84" s="1">
+        <v>2</v>
+      </c>
+      <c r="J84" s="1">
+        <v>2</v>
       </c>
       <c r="K84" s="1">
         <v>2</v>
       </c>
-      <c r="L84" s="1">
-        <v>2</v>
-      </c>
-      <c r="M84" s="1">
-        <v>2</v>
-      </c>
-      <c r="N84" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -3578,26 +3603,26 @@
       <c r="C85" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>316</v>
       </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
       <c r="H85" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I85" s="1">
+        <v>3</v>
+      </c>
+      <c r="J85" s="1">
+        <v>3</v>
       </c>
       <c r="K85" s="1">
         <v>3</v>
       </c>
-      <c r="L85" s="1">
-        <v>3</v>
-      </c>
-      <c r="M85" s="1">
-        <v>3</v>
-      </c>
-      <c r="N85" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
@@ -3607,17 +3632,17 @@
       <c r="C86" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H86" s="1">
-        <v>0</v>
-      </c>
-      <c r="I86" s="1">
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
         <v>-2</v>
       </c>
-      <c r="J86" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
@@ -3627,17 +3652,17 @@
       <c r="C87" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H87" s="1">
-        <v>1</v>
-      </c>
-      <c r="I87" s="1">
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
         <v>-3</v>
       </c>
-      <c r="J87" s="1">
+      <c r="G87" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
@@ -3647,14 +3672,14 @@
       <c r="C88" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H88" s="1">
-        <v>0</v>
-      </c>
-      <c r="I88" s="1">
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
         <v>-10</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
@@ -3664,17 +3689,17 @@
       <c r="C89" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H89" s="1">
-        <v>1</v>
-      </c>
-      <c r="J89" s="1">
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
@@ -3684,17 +3709,17 @@
       <c r="C90" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H90" s="1">
-        <v>0</v>
-      </c>
-      <c r="L90" s="1">
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
@@ -3704,17 +3729,17 @@
       <c r="C91" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H91" s="1">
-        <v>0</v>
-      </c>
-      <c r="M91" s="1">
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
@@ -3724,26 +3749,26 @@
       <c r="C92" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
       <c r="H92" s="1">
-        <v>0</v>
-      </c>
-      <c r="J92" s="1">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1">
         <v>1</v>
       </c>
       <c r="K92" s="1">
         <v>1</v>
       </c>
-      <c r="L92" s="1">
-        <v>1</v>
-      </c>
-      <c r="N92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
@@ -3753,26 +3778,26 @@
       <c r="C93" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2</v>
+      </c>
       <c r="H93" s="1">
-        <v>1</v>
-      </c>
-      <c r="J93" s="1">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1">
         <v>2</v>
       </c>
       <c r="K93" s="1">
         <v>2</v>
       </c>
-      <c r="L93" s="1">
-        <v>2</v>
-      </c>
-      <c r="N93" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
@@ -3782,11 +3807,17 @@
       <c r="C94" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>344</v>
       </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
       <c r="H94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -3794,14 +3825,8 @@
       <c r="K94" s="1">
         <v>1</v>
       </c>
-      <c r="M94" s="1">
-        <v>1</v>
-      </c>
-      <c r="N94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
@@ -3811,17 +3836,17 @@
       <c r="C95" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H95" s="1">
-        <v>0</v>
-      </c>
-      <c r="L95" s="1">
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
         <v>-2</v>
       </c>
-      <c r="N95" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
@@ -3831,14 +3856,14 @@
       <c r="C96" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H96" s="1">
-        <v>0</v>
-      </c>
-      <c r="L96" s="1">
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
@@ -3848,26 +3873,26 @@
       <c r="C97" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H97" s="1">
-        <v>0</v>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
       </c>
       <c r="J97" s="1">
         <v>1</v>
       </c>
-      <c r="L97" s="1">
-        <v>1</v>
-      </c>
-      <c r="M97" s="1">
-        <v>1</v>
-      </c>
-      <c r="N97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
@@ -3877,26 +3902,26 @@
       <c r="C98" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
       <c r="H98" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
       </c>
       <c r="K98" s="1">
         <v>1</v>
       </c>
-      <c r="L98" s="1">
-        <v>1</v>
-      </c>
-      <c r="M98" s="1">
-        <v>1</v>
-      </c>
-      <c r="N98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
@@ -3906,26 +3931,26 @@
       <c r="C99" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>356</v>
       </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
       <c r="H99" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I99" s="1">
+        <v>2</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2</v>
       </c>
       <c r="K99" s="1">
         <v>2</v>
       </c>
-      <c r="L99" s="1">
-        <v>2</v>
-      </c>
-      <c r="M99" s="1">
-        <v>2</v>
-      </c>
-      <c r="N99" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
@@ -3935,26 +3960,26 @@
       <c r="C100" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H100" s="1">
-        <v>1</v>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1">
+        <v>2</v>
       </c>
       <c r="J100" s="1">
         <v>2</v>
       </c>
-      <c r="L100" s="1">
-        <v>2</v>
-      </c>
-      <c r="M100" s="1">
-        <v>2</v>
-      </c>
-      <c r="N100" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
@@ -3964,17 +3989,17 @@
       <c r="C101" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2</v>
+      </c>
       <c r="H101" s="1">
-        <v>0</v>
-      </c>
-      <c r="J101" s="1">
-        <v>2</v>
-      </c>
-      <c r="K101" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
@@ -3984,17 +4009,17 @@
       <c r="C102" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H102" s="1">
-        <v>0</v>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
       </c>
       <c r="I102" s="1">
-        <v>1</v>
-      </c>
-      <c r="L102" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
@@ -4004,11 +4029,20 @@
       <c r="C103" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>366</v>
       </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
       <c r="H103" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -4016,17 +4050,8 @@
       <c r="K103" s="1">
         <v>1</v>
       </c>
-      <c r="L103" s="1">
-        <v>1</v>
-      </c>
-      <c r="M103" s="1">
-        <v>1</v>
-      </c>
-      <c r="N103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
@@ -4036,11 +4061,20 @@
       <c r="C104" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>366</v>
       </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>2</v>
+      </c>
       <c r="H104" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I104" s="1">
+        <v>2</v>
       </c>
       <c r="J104" s="1">
         <v>2</v>
@@ -4048,17 +4082,8 @@
       <c r="K104" s="1">
         <v>2</v>
       </c>
-      <c r="L104" s="1">
-        <v>2</v>
-      </c>
-      <c r="M104" s="1">
-        <v>2</v>
-      </c>
-      <c r="N104" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
@@ -4068,14 +4093,14 @@
       <c r="C105" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
@@ -4085,14 +4110,14 @@
       <c r="C106" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H106" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
@@ -4102,14 +4127,14 @@
       <c r="C107" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
@@ -4119,11 +4144,11 @@
       <c r="C108" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
@@ -4133,11 +4158,11 @@
       <c r="C109" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
@@ -4147,11 +4172,11 @@
       <c r="C110" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
@@ -4161,11 +4186,11 @@
       <c r="C111" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
@@ -4175,11 +4200,11 @@
       <c r="C112" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
@@ -4189,11 +4214,11 @@
       <c r="C113" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
@@ -4203,36 +4228,36 @@
       <c r="C114" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="H114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[Document]\tencent files\1281616438\filerecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF59B41B-770C-4D6D-99BB-64BDDE481967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7FB9D3-BC43-4E59-BEA5-680F198F6398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="464">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -794,788 +794,1016 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>丁克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌毒不沾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不生孩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少数民族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高考+5分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱机会提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老司机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的家人不会心脏病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你退伍后会当官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不孕不育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你生不出孩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白头偕老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人至少能活到70岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100岁时才能开启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:SPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:MNY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:CHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:STR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十而立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十不惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁时家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50岁时智力、快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从心所欲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老当益壮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时体质+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤发童颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学前启蒙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟来之财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90岁时家境+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30、40、50岁时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、18岁时智力+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形象管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、24岁时颜值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成年礼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开光之胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖传药丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的小盒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能不明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境为0时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐天派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐为0时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质为0时体质+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命悬一线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智可生财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若20岁时智力&gt;8，家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舔狗甚多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若20岁时颜值&gt;8，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保胎丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会胎死腹中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[30]</t>
+  </si>
+  <si>
+    <t>AGE?[40]</t>
+  </si>
+  <si>
+    <t>AGE?[50]</t>
+  </si>
+  <si>
+    <t>AGE?[60]</t>
+  </si>
+  <si>
+    <t>AGE?[70]</t>
+  </si>
+  <si>
+    <t>AGE?[5]</t>
+  </si>
+  <si>
+    <t>AGE?[18]</t>
+  </si>
+  <si>
+    <t>AGE?[90]</t>
+  </si>
+  <si>
+    <t>AGE?[30,40,50]</t>
+  </si>
+  <si>
+    <t>AGE?[12,18]</t>
+  </si>
+  <si>
+    <t>AGE?[16,24]</t>
+  </si>
+  <si>
+    <t>(AGE?[20])&amp;(INT&gt;8)</t>
+  </si>
+  <si>
+    <t>(AGE?[20])&amp;(CHR&gt;8)</t>
+  </si>
+  <si>
+    <t>你不会遭遇枪击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白化病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考上哈佛大学的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界限突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时体质+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练有方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相由心生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智多鑫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+2</t>
+  </si>
+  <si>
+    <t>灵光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用点-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点-3，快乐+5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石健身卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时体质+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身残志坚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活死人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开一扇窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痘痘脸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦痛侍僧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+2</t>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准扶贫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20、30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你10岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[20,30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的40~50岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康饮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不吃洋快餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想罢了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会上清华大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢没事找事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和家人不会发生车祸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢旅游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你比较自恋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺一门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可能听到一些绝密消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异界来客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三胎人生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你尽可能生三胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的60~90岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加奥赛的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考公务员时一定能考上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入狱会减刑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气稍微提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说做事很公平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万里挑一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有强迫症</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握不住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶着投胎，不要初始属性了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1084</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1085</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1086</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急了急了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离不弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会离婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>身高不矮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>足量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易胖体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值更容易降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族主义者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>黄帝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>丁克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赌毒不沾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不生孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少数民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高考+5分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋爱机会提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老司机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的家人不会心脏病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你退伍后会当官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不孕不育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你生不出孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白头偕老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱人至少能活到70岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100岁时才能开启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:SPR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:MNY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:CHR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:STR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三十而立</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四十不惑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30岁时家境+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50岁时智力、快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从心所欲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老当益壮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时体质+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹤发童颜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学前启蒙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟来之财</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90岁时家境+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财达人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30、40、50岁时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成熟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、18岁时智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>形象管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16、24岁时颜值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成年礼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开光之胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖传药丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的小盒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能不明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境为0时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐天派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐为0时快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质为0时体质+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命悬一线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智可生财</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若20岁时智力&gt;8，家境+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>舔狗甚多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若20岁时颜值&gt;8，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保胎丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会胎死腹中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[30]</t>
-  </si>
-  <si>
-    <t>AGE?[40]</t>
-  </si>
-  <si>
-    <t>AGE?[50]</t>
-  </si>
-  <si>
-    <t>AGE?[60]</t>
-  </si>
-  <si>
-    <t>AGE?[70]</t>
-  </si>
-  <si>
-    <t>AGE?[5]</t>
-  </si>
-  <si>
-    <t>AGE?[18]</t>
-  </si>
-  <si>
-    <t>AGE?[90]</t>
-  </si>
-  <si>
-    <t>AGE?[30,40,50]</t>
-  </si>
-  <si>
-    <t>AGE?[12,18]</t>
-  </si>
-  <si>
-    <t>AGE?[16,24]</t>
-  </si>
-  <si>
-    <t>(AGE?[20])&amp;(INT&gt;8)</t>
-  </si>
-  <si>
-    <t>(AGE?[20])&amp;(CHR&gt;8)</t>
-  </si>
-  <si>
-    <t>你不会遭遇枪击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白化病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛宗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考上哈佛大学的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>驻颜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>界限突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>倾城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时体质+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练有方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相由心生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时家境+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智多鑫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+2</t>
-  </si>
-  <si>
-    <t>灵光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神谕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>献祭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用点-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点-3，快乐+5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不懂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石健身卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时体质+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身残志坚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活死人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开一扇窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-2，智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>痘痘脸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大额头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哀兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&lt;-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抖M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦痛侍僧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海的女儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-2，初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+2</t>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准扶贫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你20、30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你10岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[10]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[20,30]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的40~50岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康饮食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不吃洋快餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>互斥天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclusive[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想罢了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会上清华大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢没事找事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你和家人不会发生车祸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢旅游</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你比较自恋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅行者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺一门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可能听到一些绝密消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异界来客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
+    <t>戒律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左撇子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯使用左手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克苏鲁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还拥有其他人格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不连续存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少一个可选天赋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1980,74 +2208,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.4140625" style="1"/>
-    <col min="2" max="2" width="27.4140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.9140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="13.58203125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="18.9140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.9140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.58203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="25.4140625" style="1"/>
+    <col min="7" max="11" width="13.5546875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="18.88671875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="25.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2082,16 +2321,25 @@
         <v>159</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2105,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2119,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2136,13 +2384,16 @@
         <v>12</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="1">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2156,16 +2407,16 @@
         <v>1</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2179,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -2213,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -2230,7 +2481,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2247,7 +2498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2264,13 +2515,13 @@
         <v>403</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2284,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2298,16 +2549,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2321,16 +2572,16 @@
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2347,16 +2598,16 @@
         <v>3</v>
       </c>
       <c r="L16" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2370,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2384,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2398,12 +2649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>155</v>
@@ -2427,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2435,7 +2686,7 @@
         <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2444,7 +2695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -2461,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2481,7 +2732,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2495,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2524,7 +2775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2538,16 +2789,16 @@
         <v>2</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -2561,16 +2812,19 @@
         <v>2</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="1">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -2583,8 +2837,11 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -2597,8 +2854,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -2606,13 +2866,13 @@
         <v>179</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2626,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2640,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2657,7 +2917,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2686,7 +2946,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -2703,7 +2963,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2720,7 +2980,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2737,7 +2997,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -2754,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2768,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -2782,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -2796,144 +3056,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>204</v>
+        <v>455</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -2942,18 +3208,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -2962,18 +3228,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -2985,18 +3251,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3005,18 +3271,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3025,18 +3291,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3045,18 +3311,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3065,18 +3331,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3085,18 +3351,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3105,18 +3371,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3125,18 +3391,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3145,18 +3411,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3165,18 +3431,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3185,18 +3451,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3205,15 +3471,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -3222,15 +3488,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3239,32 +3505,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3273,18 +3539,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3293,18 +3559,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3313,18 +3579,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3333,18 +3599,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -3353,60 +3619,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E73" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="E75" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3415,18 +3681,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3435,18 +3701,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3455,18 +3721,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3475,18 +3741,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3495,18 +3761,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3515,18 +3781,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3535,18 +3801,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3564,19 +3830,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
@@ -3593,18 +3859,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -3622,15 +3888,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3641,16 +3907,19 @@
       <c r="G86" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L86" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3661,16 +3930,19 @@
       <c r="G87" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L87" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3678,19 +3950,22 @@
       <c r="F88" s="1">
         <v>-10</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L88" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -3699,18 +3974,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -3719,18 +3994,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -3739,19 +4014,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="E92" s="1">
         <v>0</v>
       </c>
@@ -3768,18 +4043,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -3797,19 +4072,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="E94" s="1">
         <v>0</v>
       </c>
@@ -3826,15 +4101,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -3846,15 +4121,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -3863,19 +4138,19 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="E97" s="1">
         <v>0</v>
       </c>
@@ -3892,18 +4167,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -3921,19 +4196,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E99" s="1">
         <v>1</v>
       </c>
@@ -3950,19 +4225,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
@@ -3979,15 +4254,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -3999,15 +4274,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4019,19 +4294,19 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="E103" s="1">
         <v>0</v>
       </c>
@@ -4051,18 +4326,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4083,183 +4358,438 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E105" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="E106" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="E108" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="E109" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="E110" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="E113" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="O115" s="1">
+        <v>1027</v>
+      </c>
+      <c r="P115" s="1">
+        <v>1041</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E116" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>132</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <v>-20</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7FB9D3-BC43-4E59-BEA5-680F198F6398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48B61DC-74F2-48E8-BD4A-182C53DDFDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2岁时不会死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>红肚兜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,10 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3岁时不会死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>生而为男</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1804,6 +1796,14 @@
   </si>
   <si>
     <t>少一个可选天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时候死亡率降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许有护佑作用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2211,10 +2211,10 @@
   <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F135" sqref="F135"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2235,55 +2235,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2306,37 +2306,37 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>463</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>462</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2372,22 +2372,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O5" s="1">
         <v>1113</v>
@@ -2395,36 +2395,36 @@
     </row>
     <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="8" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2483,13 +2483,13 @@
     </row>
     <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2500,36 +2500,36 @@
     </row>
     <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="L12" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2537,59 +2537,59 @@
     </row>
     <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -2598,24 +2598,24 @@
         <v>3</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2651,13 +2651,13 @@
     </row>
     <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -2680,13 +2680,13 @@
     </row>
     <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2697,13 +2697,13 @@
     </row>
     <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -2734,13 +2734,13 @@
     </row>
     <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2748,13 +2748,13 @@
     </row>
     <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -2777,48 +2777,48 @@
     </row>
     <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O27" s="1">
         <v>1113</v>
@@ -2826,47 +2826,47 @@
     </row>
     <row r="28" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2874,13 +2874,13 @@
     </row>
     <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2888,13 +2888,13 @@
     </row>
     <row r="32" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2902,13 +2902,13 @@
     </row>
     <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2919,13 +2919,13 @@
     </row>
     <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2948,13 +2948,13 @@
     </row>
     <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2965,13 +2965,13 @@
     </row>
     <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -3016,13 +3016,13 @@
     </row>
     <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -3030,13 +3030,13 @@
     </row>
     <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -3044,13 +3044,13 @@
     </row>
     <row r="41" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3058,13 +3058,13 @@
     </row>
     <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -3072,30 +3072,30 @@
     </row>
     <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -3117,13 +3117,13 @@
     </row>
     <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -3131,13 +3131,13 @@
     </row>
     <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -3145,30 +3145,30 @@
     </row>
     <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3176,13 +3176,13 @@
     </row>
     <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -3190,16 +3190,16 @@
     </row>
     <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3210,16 +3210,16 @@
     </row>
     <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3230,16 +3230,16 @@
     </row>
     <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3273,16 +3273,16 @@
     </row>
     <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3293,16 +3293,16 @@
     </row>
     <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3313,16 +3313,16 @@
     </row>
     <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3333,16 +3333,16 @@
     </row>
     <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3373,16 +3373,16 @@
     </row>
     <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3393,16 +3393,16 @@
     </row>
     <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3413,16 +3413,16 @@
     </row>
     <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3433,16 +3433,16 @@
     </row>
     <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3453,16 +3453,16 @@
     </row>
     <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3473,13 +3473,13 @@
     </row>
     <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -3490,13 +3490,13 @@
     </row>
     <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3507,13 +3507,13 @@
     </row>
     <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3521,16 +3521,16 @@
     </row>
     <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3541,16 +3541,16 @@
     </row>
     <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3561,16 +3561,16 @@
     </row>
     <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3581,16 +3581,16 @@
     </row>
     <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3601,16 +3601,16 @@
     </row>
     <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -3621,13 +3621,13 @@
     </row>
     <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -3635,13 +3635,13 @@
     </row>
     <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -3649,13 +3649,13 @@
     </row>
     <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3663,16 +3663,16 @@
     </row>
     <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3683,16 +3683,16 @@
     </row>
     <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3703,16 +3703,16 @@
     </row>
     <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3723,16 +3723,16 @@
     </row>
     <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3743,16 +3743,16 @@
     </row>
     <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="81" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3783,16 +3783,16 @@
     </row>
     <row r="82" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3803,16 +3803,16 @@
     </row>
     <row r="83" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3832,16 +3832,16 @@
     </row>
     <row r="84" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3861,16 +3861,16 @@
     </row>
     <row r="85" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -3890,13 +3890,13 @@
     </row>
     <row r="86" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3908,18 +3908,18 @@
         <v>2</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3931,18 +3931,18 @@
         <v>5</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3951,21 +3951,21 @@
         <v>-10</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -3976,16 +3976,16 @@
     </row>
     <row r="90" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -3996,16 +3996,16 @@
     </row>
     <row r="91" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -4016,16 +4016,16 @@
     </row>
     <row r="92" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -4045,16 +4045,16 @@
     </row>
     <row r="93" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4074,16 +4074,16 @@
     </row>
     <row r="94" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4103,13 +4103,13 @@
     </row>
     <row r="95" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4123,13 +4123,13 @@
     </row>
     <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4140,16 +4140,16 @@
     </row>
     <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -4227,16 +4227,16 @@
     </row>
     <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -4256,13 +4256,13 @@
     </row>
     <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4276,13 +4276,13 @@
     </row>
     <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4296,16 +4296,16 @@
     </row>
     <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4328,16 +4328,16 @@
     </row>
     <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4360,16 +4360,16 @@
     </row>
     <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4377,16 +4377,16 @@
     </row>
     <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -4394,16 +4394,16 @@
     </row>
     <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4411,13 +4411,13 @@
     </row>
     <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4425,13 +4425,13 @@
     </row>
     <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4439,13 +4439,13 @@
     </row>
     <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4453,13 +4453,13 @@
     </row>
     <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -4481,13 +4481,13 @@
     </row>
     <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4495,13 +4495,13 @@
     </row>
     <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -4509,25 +4509,25 @@
     </row>
     <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="L115" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="L115" s="6" t="s">
+      <c r="M115" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="N115" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="N115" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="O115" s="1">
         <v>1027</v>
@@ -4541,16 +4541,16 @@
     </row>
     <row r="116" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -4558,13 +4558,13 @@
     </row>
     <row r="117" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -4572,13 +4572,13 @@
     </row>
     <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -4586,13 +4586,13 @@
     </row>
     <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -4600,13 +4600,13 @@
     </row>
     <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -4614,13 +4614,13 @@
     </row>
     <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -4628,13 +4628,13 @@
     </row>
     <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -4642,13 +4642,13 @@
     </row>
     <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -4656,13 +4656,13 @@
     </row>
     <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4671,24 +4671,24 @@
         <v>-20</v>
       </c>
       <c r="L124" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="N124" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="M124" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="N124" s="6" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -4696,13 +4696,13 @@
     </row>
     <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -4710,13 +4710,13 @@
     </row>
     <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -4724,13 +4724,13 @@
     </row>
     <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -4738,13 +4738,13 @@
     </row>
     <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -4752,13 +4752,13 @@
     </row>
     <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E130" s="1">
         <v>2</v>
@@ -4766,13 +4766,13 @@
     </row>
     <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -4780,13 +4780,13 @@
     </row>
     <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48B61DC-74F2-48E8-BD4A-182C53DDFDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F33440-1349-49EC-8228-3642668C2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="467">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1804,6 +1804,17 @@
   </si>
   <si>
     <t>或许有护佑作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>魔法棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道有什么用……</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2208,13 +2219,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4792,6 +4803,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E133" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13319264-5230-48FB-B601-FE38E524A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE58B6-CBD5-4038-B244-96B60455A8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="473">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1815,6 +1815,30 @@
   </si>
   <si>
     <t>不知道有什么用……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返老还童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会回到年轻的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许时间会倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世重修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡劫失败重生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2219,13 +2243,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
+      <selection pane="bottomRight" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4817,6 +4841,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="134" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>1132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E134" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>1133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>1134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE58B6-CBD5-4038-B244-96B60455A8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB61B143-FD2E-4420-A390-2DC73A53E125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2249,7 +2249,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D138" sqref="D138"/>
+      <selection pane="bottomRight" activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4852,7 +4852,7 @@
         <v>468</v>
       </c>
       <c r="E134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4866,7 +4866,7 @@
         <v>470</v>
       </c>
       <c r="E135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,7 +4880,7 @@
         <v>472</v>
       </c>
       <c r="E136" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB61B143-FD2E-4420-A390-2DC73A53E125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA1556A-91A1-4734-AE8F-CF135CC328BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,26 +974,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30、40、50岁时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成熟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12、18岁时智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>形象管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16、24岁时颜值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成年礼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1110,15 +1098,6 @@
     <t>AGE?[90]</t>
   </si>
   <si>
-    <t>AGE?[30,40,50]</t>
-  </si>
-  <si>
-    <t>AGE?[12,18]</t>
-  </si>
-  <si>
-    <t>AGE?[16,24]</t>
-  </si>
-  <si>
     <t>(AGE?[20])&amp;(INT&gt;8)</t>
   </si>
   <si>
@@ -1839,6 +1818,30 @@
   </si>
   <si>
     <t>渡劫失败重生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[18]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[24]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2246,10 +2249,10 @@
   <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G135" sqref="G135"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2285,7 @@
         <v>246</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -2303,22 +2306,22 @@
         <v>225</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,22 +2359,22 @@
         <v>157</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,7 +2385,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2396,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2419,10 +2422,10 @@
         <v>11</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="O5" s="1">
         <v>1113</v>
@@ -2442,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,13 +2550,13 @@
         <v>2</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2584,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2607,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2633,13 +2636,13 @@
         <v>3</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,7 +2692,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>153</v>
@@ -2721,7 +2724,7 @@
         <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2824,13 +2827,13 @@
         <v>2</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2847,10 +2850,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>11</v>
@@ -2873,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2890,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3096,7 +3099,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>203</v>
@@ -3119,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3144,7 +3147,7 @@
         <v>208</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -3192,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3214,7 +3217,7 @@
         <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>217</v>
@@ -3234,7 +3237,7 @@
         <v>228</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3254,7 +3257,7 @@
         <v>229</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3274,7 +3277,7 @@
         <v>231</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3297,7 +3300,7 @@
         <v>233</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3317,7 +3320,7 @@
         <v>235</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3337,7 +3340,7 @@
         <v>237</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3357,7 +3360,7 @@
         <v>239</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3377,7 +3380,7 @@
         <v>241</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3397,7 +3400,7 @@
         <v>243</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3417,7 +3420,7 @@
         <v>245</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3434,16 +3437,16 @@
         <v>248</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>249</v>
+        <v>468</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>285</v>
+        <v>467</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3451,19 +3454,19 @@
         <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>251</v>
+        <v>469</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>286</v>
+        <v>470</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3471,19 +3474,19 @@
         <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>287</v>
+        <v>472</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
       <c r="I63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3491,13 +3494,13 @@
         <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3511,10 +3514,10 @@
         <v>75</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -3528,10 +3531,10 @@
         <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3545,10 +3548,10 @@
         <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3559,13 +3562,13 @@
         <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3579,13 +3582,13 @@
         <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3599,13 +3602,13 @@
         <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3619,13 +3622,13 @@
         <v>81</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3639,13 +3642,13 @@
         <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -3659,10 +3662,10 @@
         <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -3673,10 +3676,10 @@
         <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -3687,10 +3690,10 @@
         <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3701,13 +3704,13 @@
         <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3721,13 +3724,13 @@
         <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3741,13 +3744,13 @@
         <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3761,13 +3764,13 @@
         <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3781,13 +3784,13 @@
         <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3801,13 +3804,13 @@
         <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3821,13 +3824,13 @@
         <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3841,13 +3844,13 @@
         <v>93</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3870,13 +3873,13 @@
         <v>94</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3899,13 +3902,13 @@
         <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -3928,10 +3931,10 @@
         <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3943,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3951,10 +3954,10 @@
         <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3966,7 +3969,7 @@
         <v>5</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3974,10 +3977,10 @@
         <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3986,7 +3989,7 @@
         <v>-10</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,13 +3997,13 @@
         <v>99</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -4014,13 +4017,13 @@
         <v>100</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4034,13 +4037,13 @@
         <v>101</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -4054,13 +4057,13 @@
         <v>102</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -4083,13 +4086,13 @@
         <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4112,13 +4115,13 @@
         <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4141,10 +4144,10 @@
         <v>105</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4161,10 +4164,10 @@
         <v>106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4178,13 +4181,13 @@
         <v>107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4207,13 +4210,13 @@
         <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4236,13 +4239,13 @@
         <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -4265,13 +4268,13 @@
         <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -4294,10 +4297,10 @@
         <v>111</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4314,10 +4317,10 @@
         <v>112</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4334,13 +4337,13 @@
         <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4366,13 +4369,13 @@
         <v>114</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4398,13 +4401,13 @@
         <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4415,13 +4418,13 @@
         <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -4432,13 +4435,13 @@
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4449,10 +4452,10 @@
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4463,10 +4466,10 @@
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4477,10 +4480,10 @@
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4491,10 +4494,10 @@
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4505,10 +4508,10 @@
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -4519,10 +4522,10 @@
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4533,10 +4536,10 @@
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -4547,22 +4550,22 @@
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O115" s="1">
         <v>1027</v>
@@ -4579,13 +4582,13 @@
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -4596,10 +4599,10 @@
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -4610,10 +4613,10 @@
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -4624,10 +4627,10 @@
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -4638,10 +4641,10 @@
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -4649,13 +4652,13 @@
     </row>
     <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -4663,13 +4666,13 @@
     </row>
     <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -4677,13 +4680,13 @@
     </row>
     <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -4691,13 +4694,13 @@
     </row>
     <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4706,24 +4709,24 @@
         <v>-20</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -4731,13 +4734,13 @@
     </row>
     <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -4745,13 +4748,13 @@
     </row>
     <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -4759,13 +4762,13 @@
     </row>
     <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -4773,13 +4776,13 @@
     </row>
     <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -4787,13 +4790,13 @@
     </row>
     <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E130" s="1">
         <v>2</v>
@@ -4801,13 +4804,13 @@
     </row>
     <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -4815,13 +4818,13 @@
     </row>
     <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
@@ -4829,13 +4832,13 @@
     </row>
     <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -4846,10 +4849,10 @@
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
@@ -4860,10 +4863,10 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
@@ -4874,10 +4877,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE58B6-CBD5-4038-B244-96B60455A8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA1556A-91A1-4734-AE8F-CF135CC328BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,26 +974,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30、40、50岁时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成熟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12、18岁时智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>形象管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16、24岁时颜值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成年礼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1110,15 +1098,6 @@
     <t>AGE?[90]</t>
   </si>
   <si>
-    <t>AGE?[30,40,50]</t>
-  </si>
-  <si>
-    <t>AGE?[12,18]</t>
-  </si>
-  <si>
-    <t>AGE?[16,24]</t>
-  </si>
-  <si>
     <t>(AGE?[20])&amp;(INT&gt;8)</t>
   </si>
   <si>
@@ -1839,6 +1818,30 @@
   </si>
   <si>
     <t>渡劫失败重生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[18]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[24]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2246,10 +2249,10 @@
   <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D138" sqref="D138"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2285,7 @@
         <v>246</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -2303,22 +2306,22 @@
         <v>225</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,22 +2359,22 @@
         <v>157</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,7 +2385,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2396,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2419,10 +2422,10 @@
         <v>11</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="O5" s="1">
         <v>1113</v>
@@ -2442,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,13 +2550,13 @@
         <v>2</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2584,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2607,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2633,13 +2636,13 @@
         <v>3</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,7 +2692,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>153</v>
@@ -2721,7 +2724,7 @@
         <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2824,13 +2827,13 @@
         <v>2</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2847,10 +2850,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>11</v>
@@ -2873,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2890,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3096,7 +3099,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>203</v>
@@ -3119,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3144,7 +3147,7 @@
         <v>208</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -3192,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3214,7 +3217,7 @@
         <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>217</v>
@@ -3234,7 +3237,7 @@
         <v>228</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3254,7 +3257,7 @@
         <v>229</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3274,7 +3277,7 @@
         <v>231</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3297,7 +3300,7 @@
         <v>233</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3317,7 +3320,7 @@
         <v>235</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3337,7 +3340,7 @@
         <v>237</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3357,7 +3360,7 @@
         <v>239</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3377,7 +3380,7 @@
         <v>241</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3397,7 +3400,7 @@
         <v>243</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3417,7 +3420,7 @@
         <v>245</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3434,16 +3437,16 @@
         <v>248</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>249</v>
+        <v>468</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>285</v>
+        <v>467</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3451,19 +3454,19 @@
         <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>251</v>
+        <v>469</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>286</v>
+        <v>470</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3471,19 +3474,19 @@
         <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>287</v>
+        <v>472</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
       <c r="I63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3491,13 +3494,13 @@
         <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3511,10 +3514,10 @@
         <v>75</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -3528,10 +3531,10 @@
         <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3545,10 +3548,10 @@
         <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3559,13 +3562,13 @@
         <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3579,13 +3582,13 @@
         <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3599,13 +3602,13 @@
         <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3619,13 +3622,13 @@
         <v>81</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3639,13 +3642,13 @@
         <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -3659,10 +3662,10 @@
         <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -3673,10 +3676,10 @@
         <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -3687,10 +3690,10 @@
         <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3701,13 +3704,13 @@
         <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3721,13 +3724,13 @@
         <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3741,13 +3744,13 @@
         <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3761,13 +3764,13 @@
         <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3781,13 +3784,13 @@
         <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3801,13 +3804,13 @@
         <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3821,13 +3824,13 @@
         <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3841,13 +3844,13 @@
         <v>93</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3870,13 +3873,13 @@
         <v>94</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3899,13 +3902,13 @@
         <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -3928,10 +3931,10 @@
         <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3943,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3951,10 +3954,10 @@
         <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3966,7 +3969,7 @@
         <v>5</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3974,10 +3977,10 @@
         <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3986,7 +3989,7 @@
         <v>-10</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,13 +3997,13 @@
         <v>99</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -4014,13 +4017,13 @@
         <v>100</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4034,13 +4037,13 @@
         <v>101</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -4054,13 +4057,13 @@
         <v>102</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -4083,13 +4086,13 @@
         <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4112,13 +4115,13 @@
         <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4141,10 +4144,10 @@
         <v>105</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4161,10 +4164,10 @@
         <v>106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4178,13 +4181,13 @@
         <v>107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4207,13 +4210,13 @@
         <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4236,13 +4239,13 @@
         <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -4265,13 +4268,13 @@
         <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -4294,10 +4297,10 @@
         <v>111</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4314,10 +4317,10 @@
         <v>112</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4334,13 +4337,13 @@
         <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4366,13 +4369,13 @@
         <v>114</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4398,13 +4401,13 @@
         <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4415,13 +4418,13 @@
         <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -4432,13 +4435,13 @@
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4449,10 +4452,10 @@
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4463,10 +4466,10 @@
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4477,10 +4480,10 @@
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4491,10 +4494,10 @@
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4505,10 +4508,10 @@
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -4519,10 +4522,10 @@
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4533,10 +4536,10 @@
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -4547,22 +4550,22 @@
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O115" s="1">
         <v>1027</v>
@@ -4579,13 +4582,13 @@
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -4596,10 +4599,10 @@
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -4610,10 +4613,10 @@
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -4624,10 +4627,10 @@
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -4638,10 +4641,10 @@
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -4649,13 +4652,13 @@
     </row>
     <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -4663,13 +4666,13 @@
     </row>
     <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -4677,13 +4680,13 @@
     </row>
     <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -4691,13 +4694,13 @@
     </row>
     <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4706,24 +4709,24 @@
         <v>-20</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -4731,13 +4734,13 @@
     </row>
     <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -4745,13 +4748,13 @@
     </row>
     <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -4759,13 +4762,13 @@
     </row>
     <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -4773,13 +4776,13 @@
     </row>
     <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -4787,13 +4790,13 @@
     </row>
     <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E130" s="1">
         <v>2</v>
@@ -4801,13 +4804,13 @@
     </row>
     <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -4815,13 +4818,13 @@
     </row>
     <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
@@ -4829,13 +4832,13 @@
     </row>
     <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -4846,13 +4849,13 @@
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4860,13 +4863,13 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4874,13 +4877,13 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E136" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA1556A-91A1-4734-AE8F-CF135CC328BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5843D9FD-FCF0-4BD2-A843-69F0C2124053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,518 +522,514 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>天龙人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拥有北京户口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独生子女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有兄弟姐妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡间微风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在农村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城中高楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有美国国籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美籍华人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家中老大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最受父母宠爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水性良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被淹死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先天免疫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会得艾滋病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外家境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外颜值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外智力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外快乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母美貌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红颜薄命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值+2，体质-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属蛇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被蛇咬死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人中龙凤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生双重性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳之外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生无性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩情证道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终生不恋爱结婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花连连</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12岁前父母都健在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安童年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物大师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物不会意外死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生残疾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早产儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十死无生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家运不顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头着地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班中红人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和同学容易处好关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能轻松学会骑车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永远的神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电竞天才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能和同性交往</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹之下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌毒不沾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不生孩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少数民族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高考+5分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱机会提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老司机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的家人不会心脏病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你退伍后会当官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不孕不育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你生不出孩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白头偕老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人至少能活到70岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100岁时才能开启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:SPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:MNY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:CHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:STR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十而立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十不惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁时家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50岁时智力、快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从心所欲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老当益壮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时体质+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤发童颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学前启蒙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟来之财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90岁时家境+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形象管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成年礼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开光之胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖传药丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的小盒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能不明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境为0时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>乐天派</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天龙人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你拥有北京户口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>独生子女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有兄弟姐妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乡间微风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在农村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城中高楼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有美国国籍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美籍华人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家中老大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你最受父母宠爱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水性良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被淹死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先天免疫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会得艾滋病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外家境</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外颜值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外智力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外快乐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超凡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母美貌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红颜薄命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值+2，体质-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属蛇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被蛇咬死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>半神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人中龙凤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生双重性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳之外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生无性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩情证道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>终生不恋爱结婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花连连</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12岁前父母都健在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安童年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物大师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物不会意外死亡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生残疾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>早产儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十死无生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家运不顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头着地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胎教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班中红人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和同学容易处好关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能轻松学会骑车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永远的神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电竞天才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能和同性交往</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩虹之下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赌毒不沾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不生孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少数民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高考+5分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋爱机会提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老司机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的家人不会心脏病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你退伍后会当官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不孕不育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你生不出孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白头偕老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱人至少能活到70岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100岁时才能开启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:SPR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:MNY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:CHR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:STR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三十而立</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四十不惑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30岁时家境+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50岁时智力、快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从心所欲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老当益壮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时体质+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹤发童颜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学前启蒙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟来之财</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90岁时家境+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财达人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成熟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>形象管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成年礼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开光之胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖传药丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的小盒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能不明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境为0时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐天派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>快乐为0时快乐+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1291,10 +1287,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>体质&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>活死人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1842,6 +1834,14 @@
   </si>
   <si>
     <t>AGE?[24]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;0时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2249,10 +2249,10 @@
   <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2273,55 +2273,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2344,37 +2344,37 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>11</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O5" s="1">
         <v>1113</v>
@@ -2445,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2473,10 +2473,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>472</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2541,22 +2541,22 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="L12" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2564,10 +2564,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2578,22 +2578,22 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2601,22 +2601,22 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2624,10 +2624,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -2636,13 +2636,13 @@
         <v>3</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2650,10 +2650,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2664,10 +2664,10 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2692,10 +2692,10 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -2721,10 +2721,10 @@
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2738,10 +2738,10 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2755,10 +2755,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -2818,22 +2818,22 @@
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2841,19 +2841,19 @@
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>11</v>
@@ -2867,16 +2867,16 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2884,16 +2884,16 @@
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2901,10 +2901,10 @@
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2915,10 +2915,10 @@
         <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2929,10 +2929,10 @@
         <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2943,10 +2943,10 @@
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2989,10 +2989,10 @@
         <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -3023,10 +3023,10 @@
         <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3099,10 +3099,10 @@
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3130,10 +3130,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -3144,10 +3144,10 @@
         <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -3172,10 +3172,10 @@
         <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3203,10 +3203,10 @@
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3217,10 +3217,10 @@
         <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -3231,13 +3231,13 @@
         <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3251,13 +3251,13 @@
         <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3294,13 +3294,13 @@
         <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>65</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3334,13 +3334,13 @@
         <v>66</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3354,13 +3354,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3374,13 +3374,13 @@
         <v>68</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>69</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3414,13 +3414,13 @@
         <v>70</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3434,13 +3434,13 @@
         <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3454,13 +3454,13 @@
         <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3474,13 +3474,13 @@
         <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3494,13 +3494,13 @@
         <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>75</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3548,10 +3548,10 @@
         <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3562,13 +3562,13 @@
         <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3602,13 +3602,13 @@
         <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3622,13 +3622,13 @@
         <v>81</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -3662,10 +3662,10 @@
         <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -3690,10 +3690,10 @@
         <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3704,13 +3704,13 @@
         <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3724,13 +3724,13 @@
         <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3744,13 +3744,13 @@
         <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3764,13 +3764,13 @@
         <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3784,13 +3784,13 @@
         <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3804,13 +3804,13 @@
         <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3844,13 +3844,13 @@
         <v>93</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>94</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3902,13 +3902,13 @@
         <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -3931,10 +3931,10 @@
         <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3954,10 +3954,10 @@
         <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3969,7 +3969,7 @@
         <v>5</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3977,10 +3977,10 @@
         <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>-10</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3997,13 +3997,13 @@
         <v>99</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -4017,13 +4017,13 @@
         <v>100</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>101</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -4057,13 +4057,13 @@
         <v>102</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -4086,13 +4086,13 @@
         <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>331</v>
+        <v>471</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4115,13 +4115,13 @@
         <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>105</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4181,13 +4181,13 @@
         <v>107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4210,13 +4210,13 @@
         <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4239,13 +4239,13 @@
         <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -4268,13 +4268,13 @@
         <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -4297,10 +4297,10 @@
         <v>111</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4317,10 +4317,10 @@
         <v>112</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4337,13 +4337,13 @@
         <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4369,13 +4369,13 @@
         <v>114</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4401,13 +4401,13 @@
         <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4418,13 +4418,13 @@
         <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -4435,13 +4435,13 @@
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4452,10 +4452,10 @@
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4466,10 +4466,10 @@
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4480,10 +4480,10 @@
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4494,10 +4494,10 @@
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4508,10 +4508,10 @@
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -4522,10 +4522,10 @@
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4536,10 +4536,10 @@
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -4550,22 +4550,22 @@
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="L115" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="L115" s="6" t="s">
+      <c r="M115" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="N115" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="N115" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="O115" s="1">
         <v>1027</v>
@@ -4582,13 +4582,13 @@
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -4599,10 +4599,10 @@
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -4613,10 +4613,10 @@
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -4627,10 +4627,10 @@
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -4641,10 +4641,10 @@
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -4652,13 +4652,13 @@
     </row>
     <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -4666,13 +4666,13 @@
     </row>
     <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -4694,13 +4694,13 @@
     </row>
     <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4709,24 +4709,24 @@
         <v>-20</v>
       </c>
       <c r="L124" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="N124" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="M124" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="N124" s="6" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -4734,13 +4734,13 @@
     </row>
     <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -4748,13 +4748,13 @@
     </row>
     <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -4762,13 +4762,13 @@
     </row>
     <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -4776,13 +4776,13 @@
     </row>
     <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -4790,13 +4790,13 @@
     </row>
     <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E130" s="1">
         <v>2</v>
@@ -4804,13 +4804,13 @@
     </row>
     <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -4818,13 +4818,13 @@
     </row>
     <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
@@ -4832,13 +4832,13 @@
     </row>
     <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -4849,10 +4849,10 @@
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
@@ -4863,10 +4863,10 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
@@ -4877,10 +4877,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5843D9FD-FCF0-4BD2-A843-69F0C2124053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC5D45B-00AC-4951-8246-510F02069F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2249,10 +2249,10 @@
   <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4813,7 +4813,7 @@
         <v>450</v>
       </c>
       <c r="E131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC5D45B-00AC-4951-8246-510F02069F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642B09E-D3EC-4B80-8C67-511FE46CEA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="475">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1842,6 +1842,14 @@
   </si>
   <si>
     <t>乐观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死后可能灵魂离体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回之外</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2246,13 +2254,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomRight" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2549,6 +2557,9 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="L12" s="6" t="s">
         <v>393</v>
       </c>
@@ -2633,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>389</v>
@@ -4884,6 +4895,20 @@
       </c>
       <c r="E136" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>1135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E137" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642B09E-D3EC-4B80-8C67-511FE46CEA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939727DC-F6C9-4CB5-9BCD-3D10348BB2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="505">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1430,18 +1430,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AGE?[20,30]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跳过你的40~50岁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>健康饮食</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1582,10 +1574,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>参加奥赛的几率提高</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1850,6 +1838,138 @@
   </si>
   <si>
     <t>轮回之外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境+10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AGE?[100])&amp;(TMS&gt;99)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百岁百世丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机蓝色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机紫色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机橙色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养爱好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:RDM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换成某稀有度的天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换成某天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement:grade[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement:talent[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外之喜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴间大会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能开出好天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴间福袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1138,1133,1125,1128,1129,1131,1111,1108,1071,1072,1044,1039,1040,1033,1031,1002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某条件下所有属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮盘赌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/6几率变橙色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1141*0.2,1135*0.2,1114*0.2,1023*0.2,1048*0.2,1033*5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[60]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[20]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2254,13 +2374,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q137"/>
+  <dimension ref="A1:V148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C139" sqref="C139"/>
+      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2271,15 +2391,16 @@
     <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="13.5546875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="18.88671875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="25.44140625" style="1"/>
+    <col min="7" max="12" width="13.5546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="28.77734375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="18.88671875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="25.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -2313,26 +2434,41 @@
       <c r="K1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>372</v>
+      <c r="L1" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2366,26 +2502,41 @@
       <c r="K2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>371</v>
+      <c r="L2" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2393,13 +2544,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2407,13 +2558,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2426,20 +2577,17 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2452,17 +2600,17 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2476,12 +2624,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>158</v>
@@ -2493,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2510,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2527,7 +2675,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2544,7 +2692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2560,17 +2708,17 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="O12" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2584,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2597,17 +2745,17 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="O14" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2620,17 +2768,17 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="O15" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2646,17 +2794,17 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="N16" s="6" t="s">
+      <c r="O16" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2670,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2684,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2698,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2727,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2744,7 +2892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -2761,7 +2909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2781,7 +2929,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2795,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2824,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2837,17 +2985,17 @@
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="O26" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="P26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2860,20 +3008,20 @@
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="O27" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O27" s="1">
+      <c r="R27" s="1">
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2886,11 +3034,11 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2903,11 +3051,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2935,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2949,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2966,7 +3114,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -2995,7 +3143,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3012,7 +3160,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3029,7 +3177,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3046,7 +3194,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3063,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3077,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3091,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3105,12 +3253,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>202</v>
@@ -3119,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3132,11 +3280,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3150,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3158,13 +3306,13 @@
         <v>207</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3178,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3192,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3205,8 +3353,8 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>397</v>
+      <c r="O48" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3448,10 +3596,10 @@
         <v>247</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3468,10 +3616,10 @@
         <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3488,10 +3636,10 @@
         <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3810,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -3830,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -3850,7 +3998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -3879,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -3908,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -3937,7 +4085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -3956,11 +4104,11 @@
       <c r="G86" s="1">
         <v>2</v>
       </c>
-      <c r="L86" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -3979,11 +4127,11 @@
       <c r="G87" s="1">
         <v>5</v>
       </c>
-      <c r="L87" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -3999,11 +4147,11 @@
       <c r="F88" s="1">
         <v>-10</v>
       </c>
-      <c r="L88" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4023,7 +4171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4043,7 +4191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4063,7 +4211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4092,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4100,7 +4248,7 @@
         <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>328</v>
@@ -4121,7 +4269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4150,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4170,7 +4318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4432,10 +4580,10 @@
         <v>363</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>368</v>
+        <v>462</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -4452,7 +4600,7 @@
         <v>360</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>366</v>
+        <v>504</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4463,10 +4611,10 @@
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4477,10 +4625,10 @@
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4491,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4505,10 +4653,10 @@
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4519,199 +4667,199 @@
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="O115" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="L115" s="6" t="s">
+      <c r="P115" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q115" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="M115" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="N115" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="O115" s="1">
+      <c r="R115" s="1">
         <v>1027</v>
       </c>
-      <c r="P115" s="1">
+      <c r="S115" s="1">
         <v>1041</v>
       </c>
-      <c r="Q115" s="1">
+      <c r="T115" s="1">
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>404</v>
+        <v>503</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4719,196 +4867,446 @@
       <c r="F124" s="1">
         <v>-20</v>
       </c>
-      <c r="L124" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="M124" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="N124" s="6" t="s">
+      <c r="O124" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="P124" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q124" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B128" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="B133" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E137" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>1136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>1137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1">
+        <v>2</v>
+      </c>
+      <c r="H139" s="1">
+        <v>2</v>
+      </c>
+      <c r="I139" s="1">
+        <v>2</v>
+      </c>
+      <c r="J139" s="1">
+        <v>2</v>
+      </c>
+      <c r="K139" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>1138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>1139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="L141" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E142" s="1">
+        <v>2</v>
+      </c>
+      <c r="L142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E143" s="1">
+        <v>3</v>
+      </c>
+      <c r="L143" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="P144" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q144" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="R144" s="1">
+        <v>1110</v>
+      </c>
+      <c r="S144" s="1">
+        <v>1103</v>
+      </c>
+      <c r="T144" s="1">
+        <v>1104</v>
+      </c>
+      <c r="U144" s="1">
+        <v>1124</v>
+      </c>
+      <c r="V144" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>2</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q145" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="R145" s="1">
+        <v>1110</v>
+      </c>
+      <c r="S145" s="1">
+        <v>1103</v>
+      </c>
+      <c r="T145" s="1">
+        <v>1104</v>
+      </c>
+      <c r="U145" s="1">
+        <v>1124</v>
+      </c>
+      <c r="V145" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2</v>
+      </c>
+      <c r="M146" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939727DC-F6C9-4CB5-9BCD-3D10348BB2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4037AE88-33FF-4D8F-8064-8916FB37D479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="509">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1945,10 +1945,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1138,1133,1125,1128,1129,1131,1111,1108,1071,1072,1044,1039,1040,1033,1031,1002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>某条件下所有属性+2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1961,16 +1957,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1141*0.2,1135*0.2,1114*0.2,1023*0.2,1048*0.2,1033*5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AGE?[60]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AGE?[20]</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1141*0.2</t>
+  </si>
+  <si>
+    <t>1135*0.2</t>
+  </si>
+  <si>
+    <t>1114*0.2</t>
+  </si>
+  <si>
+    <t>1023*0.2</t>
+  </si>
+  <si>
+    <t>1048*0.2</t>
+  </si>
+  <si>
+    <t>1033*5</t>
   </si>
 </sst>
 </file>
@@ -2374,33 +2384,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V148"/>
+  <dimension ref="A1:AK148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
+      <selection pane="bottomRight" activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.4140625" style="1"/>
+    <col min="2" max="2" width="27.4140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="12" width="13.5546875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="28.77734375" style="1" customWidth="1"/>
-    <col min="15" max="17" width="18.88671875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.109375" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="25.44140625" style="1"/>
+    <col min="7" max="12" width="13.58203125" style="1" customWidth="1"/>
+    <col min="13" max="29" width="23.33203125" style="1" customWidth="1"/>
+    <col min="30" max="32" width="18.9140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="21.9140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="19.08203125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="25.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -2443,32 +2453,77 @@
       <c r="N1" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="3" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2511,32 +2566,77 @@
       <c r="N2" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2550,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2577,17 +2677,17 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="AD5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="AE5" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2600,17 +2700,17 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="AF6" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2624,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2641,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2658,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2675,7 +2775,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2692,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2708,17 +2808,17 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="AD12" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="AE12" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="AF12" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2732,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2745,17 +2845,17 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="AD14" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="AE14" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="AF14" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2768,17 +2868,17 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="AD15" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="AE15" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="AF15" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2794,17 +2894,17 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="AD16" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="AE16" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="AF16" s="6" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2818,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2832,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2846,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2875,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,7 +2992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -2909,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2929,7 +3029,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2943,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2972,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2985,17 +3085,17 @@
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="AD26" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="AE26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="AF26" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3008,20 +3108,20 @@
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="AD27" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="AE27" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="AF27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R27" s="1">
+      <c r="AG27" s="1">
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3034,11 +3134,11 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="AD28" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3051,11 +3151,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="AD29" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3069,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3083,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3097,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3114,7 +3214,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -3143,7 +3243,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3160,7 +3260,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3177,7 +3277,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3194,7 +3294,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3211,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3225,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3239,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3267,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3280,11 +3380,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="AD43" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3298,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3312,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3326,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3340,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3353,11 +3453,11 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="AD48" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -3371,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -3385,7 +3485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -3405,7 +3505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -3425,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3448,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -3468,7 +3568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -3488,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -3508,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3528,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -3548,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3568,7 +3668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -3588,7 +3688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3608,7 +3708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -3628,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3648,7 +3748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3668,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3685,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -3702,7 +3802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -3716,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -3736,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3756,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -3776,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -3796,7 +3896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -3816,7 +3916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -3830,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -3844,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -3858,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -3878,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -3898,7 +3998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -3918,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -3938,7 +4038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -3958,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -3978,7 +4078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -3998,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -4027,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4056,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4085,7 +4185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4104,11 +4204,11 @@
       <c r="G86" s="1">
         <v>2</v>
       </c>
-      <c r="O86" s="6" t="s">
+      <c r="AD86" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -4127,11 +4227,11 @@
       <c r="G87" s="1">
         <v>5</v>
       </c>
-      <c r="O87" s="6" t="s">
+      <c r="AD87" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -4147,11 +4247,11 @@
       <c r="F88" s="1">
         <v>-10</v>
       </c>
-      <c r="O88" s="6" t="s">
+      <c r="AD88" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4171,7 +4271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4191,7 +4291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4211,7 +4311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4240,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4269,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4298,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4318,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4335,7 +4435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4364,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4393,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4422,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -4451,7 +4551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4471,7 +4571,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4491,7 +4591,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -4523,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -4555,7 +4655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -4572,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -4589,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -4600,13 +4700,13 @@
         <v>360</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -4620,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -4634,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -4648,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -4662,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -4676,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -4690,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -4704,7 +4804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -4717,26 +4817,26 @@
       <c r="E115" s="1">
         <v>1</v>
       </c>
-      <c r="O115" s="6" t="s">
+      <c r="AD115" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="P115" s="6" t="s">
+      <c r="AE115" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="Q115" s="6" t="s">
+      <c r="AF115" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="R115" s="1">
+      <c r="AG115" s="1">
         <v>1027</v>
       </c>
-      <c r="S115" s="1">
+      <c r="AH115" s="1">
         <v>1041</v>
       </c>
-      <c r="T115" s="1">
+      <c r="AI115" s="1">
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -4747,13 +4847,13 @@
         <v>400</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -4767,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -4781,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -4795,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -4809,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>405</v>
       </c>
@@ -4823,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>406</v>
       </c>
@@ -4837,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>407</v>
       </c>
@@ -4851,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>408</v>
       </c>
@@ -4867,17 +4967,17 @@
       <c r="F124" s="1">
         <v>-20</v>
       </c>
-      <c r="O124" s="6" t="s">
+      <c r="AD124" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="P124" s="6" t="s">
+      <c r="AE124" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="Q124" s="6" t="s">
+      <c r="AF124" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>409</v>
       </c>
@@ -4891,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>410</v>
       </c>
@@ -4905,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>411</v>
       </c>
@@ -4919,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>412</v>
       </c>
@@ -4933,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>413</v>
       </c>
@@ -4947,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>414</v>
       </c>
@@ -4961,7 +5061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>434</v>
       </c>
@@ -4975,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>435</v>
       </c>
@@ -4989,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>453</v>
       </c>
@@ -5003,7 +5103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
@@ -5017,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
@@ -5031,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
@@ -5045,7 +5145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
@@ -5059,7 +5159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>1136</v>
       </c>
@@ -5076,7 +5176,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>1137</v>
       </c>
@@ -5084,7 +5184,7 @@
         <v>475</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>474</v>
@@ -5108,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1138</v>
       </c>
@@ -5125,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>1139</v>
       </c>
@@ -5142,7 +5242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>1140</v>
       </c>
@@ -5159,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>1141</v>
       </c>
@@ -5176,7 +5276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>1142</v>
       </c>
@@ -5192,32 +5292,32 @@
       <c r="M144" s="1">
         <v>1</v>
       </c>
-      <c r="O144" s="6" t="s">
+      <c r="AD144" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="P144" s="6" t="s">
+      <c r="AE144" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Q144" s="6" t="s">
+      <c r="AF144" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="R144" s="1">
+      <c r="AG144" s="1">
         <v>1110</v>
       </c>
-      <c r="S144" s="1">
+      <c r="AH144" s="1">
         <v>1103</v>
       </c>
-      <c r="T144" s="1">
+      <c r="AI144" s="1">
         <v>1104</v>
       </c>
-      <c r="U144" s="1">
+      <c r="AJ144" s="1">
         <v>1124</v>
       </c>
-      <c r="V144" s="1">
+      <c r="AK144" s="1">
         <v>1125</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>1143</v>
       </c>
@@ -5233,32 +5333,32 @@
       <c r="M145" s="1">
         <v>2</v>
       </c>
-      <c r="O145" s="6" t="s">
+      <c r="AD145" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="P145" s="6" t="s">
+      <c r="AE145" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Q145" s="6" t="s">
+      <c r="AF145" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="R145" s="1">
+      <c r="AG145" s="1">
         <v>1110</v>
       </c>
-      <c r="S145" s="1">
+      <c r="AH145" s="1">
         <v>1103</v>
       </c>
-      <c r="T145" s="1">
+      <c r="AI145" s="1">
         <v>1104</v>
       </c>
-      <c r="U145" s="1">
+      <c r="AJ145" s="1">
         <v>1124</v>
       </c>
-      <c r="V145" s="1">
+      <c r="AK145" s="1">
         <v>1125</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>1144</v>
       </c>
@@ -5275,7 +5375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>1145</v>
       </c>
@@ -5288,25 +5388,85 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-      <c r="N147" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N147" s="6">
+        <v>1138</v>
+      </c>
+      <c r="O147" s="6">
+        <v>1133</v>
+      </c>
+      <c r="P147" s="6">
+        <v>1125</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>1128</v>
+      </c>
+      <c r="R147" s="6">
+        <v>1129</v>
+      </c>
+      <c r="S147" s="6">
+        <v>1131</v>
+      </c>
+      <c r="T147" s="6">
+        <v>1111</v>
+      </c>
+      <c r="U147" s="6">
+        <v>1108</v>
+      </c>
+      <c r="V147" s="6">
+        <v>1071</v>
+      </c>
+      <c r="W147" s="6">
+        <v>1072</v>
+      </c>
+      <c r="X147" s="6">
+        <v>1044</v>
+      </c>
+      <c r="Y147" s="6">
+        <v>1039</v>
+      </c>
+      <c r="Z147" s="6">
+        <v>1040</v>
+      </c>
+      <c r="AA147" s="6">
+        <v>1033</v>
+      </c>
+      <c r="AB147" s="6">
+        <v>1031</v>
+      </c>
+      <c r="AC147" s="6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>1146</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4037AE88-33FF-4D8F-8064-8916FB37D479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B11765-051F-4931-B805-80F5AD064E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -1359,568 +1359,564 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>抖M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦痛侍僧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+2</t>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准扶贫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20、30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你10岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的40~50岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康饮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不吃洋快餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想罢了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会上清华大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢没事找事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和家人不会发生车祸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢旅游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你比较自恋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺一门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可能听到一些绝密消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异界来客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三胎人生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你尽可能生三胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的60~90岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加奥赛的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考公务员时一定能考上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入狱会减刑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气稍微提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说做事很公平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万里挑一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有强迫症</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握不住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶着投胎，不要初始属性了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1084</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1085</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1086</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急了急了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离不弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会离婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>身高不矮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>足量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易胖体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值更容易降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族主义者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左撇子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯使用左手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克苏鲁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还拥有其他人格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不连续存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少一个可选天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时候死亡率降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许有护佑作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>魔法棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道有什么用……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返老还童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会回到年轻的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许时间会倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世重修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡劫失败重生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[18]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[24]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;0时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死后可能灵魂离体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回之外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境+10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AGE?[100])&amp;(TMS&gt;99)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百岁百世丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机蓝色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机紫色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机橙色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养爱好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:RDM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换成某稀有度的天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换成某天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement:grade[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement:talent[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外之喜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>觉醒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>抖M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦痛侍僧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海的女儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-2，初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+2</t>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准扶贫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你20、30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你10岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[10]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的40~50岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康饮食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不吃洋快餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>互斥天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclusive[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想罢了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会上清华大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢没事找事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你和家人不会发生车祸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢旅游</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你比较自恋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅行者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺一门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可能听到一些绝密消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异界来客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三胎人生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你尽可能生三胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的60~90岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加奥赛的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宙斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考公务员时一定能考上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>为人民服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入狱会减刑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运气稍微提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小吉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天秤座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说做事很公平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万里挑一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你很攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有强迫症</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把握不住</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赶着投胎，不要初始属性了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1084</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1085</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1086</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>急了急了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不离不弃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会离婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>身高不矮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>足量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易胖体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值更容易降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族主义者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄帝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒律</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左撇子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>习惯使用左手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>克苏鲁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还拥有其他人格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不连续存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少一个可选天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时候死亡率降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许有护佑作用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1131</t>
-  </si>
-  <si>
-    <t>魔法棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道有什么用……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返老还童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能会回到年轻的时候</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时光倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许时间会倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转世重修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡劫失败重生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[40]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40岁时家境+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[18]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24岁时颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[24]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&lt;0时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐观</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>死后可能灵魂离体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮回之外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪婪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境+10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(AGE?[100])&amp;(TMS&gt;99)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百岁百世丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机属性+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机属性+8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>变成随机蓝色天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>变成随机紫色天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>变成随机橙色天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>培养爱好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:RDM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换成某稀有度的天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换成某天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>replacement:grade[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>replacement:talent[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>意外之喜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝色转盘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1981,6 +1977,10 @@
   </si>
   <si>
     <t>1033*5</t>
+  </si>
+  <si>
+    <t>艰苦奋斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2387,30 +2387,30 @@
   <dimension ref="A1:AK148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J148" sqref="J148"/>
+      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.4140625" style="1"/>
-    <col min="2" max="2" width="27.4140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.9140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="12" width="13.58203125" style="1" customWidth="1"/>
+    <col min="7" max="12" width="13.5546875" style="1" customWidth="1"/>
     <col min="13" max="29" width="23.33203125" style="1" customWidth="1"/>
-    <col min="30" max="32" width="18.9140625" style="6" customWidth="1"/>
+    <col min="30" max="32" width="18.88671875" style="6" customWidth="1"/>
     <col min="33" max="33" width="19.33203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="21.9140625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="19.08203125" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="25.4140625" style="1"/>
+    <col min="34" max="34" width="21.88671875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="19.109375" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="25.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -2445,85 +2445,85 @@
         <v>224</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2558,85 +2558,85 @@
         <v>156</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>487</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2644,13 +2644,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2658,13 +2658,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2681,13 +2681,13 @@
         <v>11</v>
       </c>
       <c r="AE5" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF5" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="AF5" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2701,16 +2701,16 @@
         <v>1</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2724,12 +2724,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>158</v>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2809,16 +2809,16 @@
         <v>1</v>
       </c>
       <c r="AD12" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE12" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="AE12" s="6" t="s">
+      <c r="AF12" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="AF12" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="AD14" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE14" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="AE14" s="6" t="s">
+      <c r="AF14" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="AF14" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2869,16 +2869,16 @@
         <v>0</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2895,16 +2895,16 @@
         <v>1</v>
       </c>
       <c r="AD16" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF16" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="AE16" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3086,16 +3086,16 @@
         <v>2</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AE26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3109,10 +3109,10 @@
         <v>2</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF27" s="6" t="s">
         <v>11</v>
@@ -3121,7 +3121,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3135,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3152,10 +3152,10 @@
         <v>1</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3353,12 +3353,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>202</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3381,10 +3381,10 @@
         <v>1</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3406,13 +3406,13 @@
         <v>207</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3454,10 +3454,10 @@
         <v>1</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3696,10 +3696,10 @@
         <v>247</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -3716,11 +3716,11 @@
         <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3736,11 +3736,11 @@
         <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -3816,12 +3816,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>261</v>
@@ -3836,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4205,10 +4205,10 @@
         <v>2</v>
       </c>
       <c r="AD86" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -4228,10 +4228,10 @@
         <v>5</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -4248,10 +4248,10 @@
         <v>-10</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>328</v>
@@ -4369,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4493,12 +4493,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>344</v>
@@ -4522,12 +4522,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>348</v>
+        <v>508</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>346</v>
@@ -4551,15 +4551,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4571,15 +4571,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4591,19 +4591,19 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>355</v>
-      </c>
       <c r="E103" s="1">
         <v>0</v>
       </c>
@@ -4623,18 +4623,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4655,176 +4655,176 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E105" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="E108" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="E109" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="E110" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="E113" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="AD115" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE115" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="AE115" s="6" t="s">
+      <c r="AF115" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="AF115" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="AG115" s="1">
         <v>1027</v>
@@ -4836,130 +4836,130 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4968,206 +4968,206 @@
         <v>-20</v>
       </c>
       <c r="AD124" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE124" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="AE124" s="6" t="s">
+      <c r="AF124" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="AF124" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="125" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:35" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B131" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="E132" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="E133" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="E135" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="E136" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E137" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1136</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
@@ -5176,18 +5176,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -5208,15 +5208,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E140" s="1">
         <v>0</v>
@@ -5225,15 +5225,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -5242,15 +5242,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E142" s="1">
         <v>2</v>
@@ -5259,15 +5259,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E143" s="1">
         <v>3</v>
@@ -5276,15 +5276,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
@@ -5293,13 +5293,13 @@
         <v>1</v>
       </c>
       <c r="AD144" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE144" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF144" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="AF144" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="AG144" s="1">
         <v>1110</v>
@@ -5317,15 +5317,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="145" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
@@ -5334,13 +5334,13 @@
         <v>2</v>
       </c>
       <c r="AD145" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE145" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF145" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="AF145" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="AG145" s="1">
         <v>1110</v>
@@ -5358,15 +5358,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E146" s="1">
         <v>2</v>
@@ -5375,15 +5375,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
@@ -5437,36 +5437,36 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:37" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1146</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="N148" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O148" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O148" s="1" t="s">
+      <c r="P148" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="P148" s="1" t="s">
+      <c r="Q148" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="Q148" s="1" t="s">
+      <c r="R148" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="R148" s="1" t="s">
+      <c r="S148" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="S148" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B11765-051F-4931-B805-80F5AD064E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DA7A2-06C4-413C-8A46-63BA84CCF001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2387,10 +2387,10 @@
   <dimension ref="A1:AK148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AG140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
+      <selection pane="bottomRight" activeCell="AI146" sqref="AI146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5305,10 +5305,10 @@
         <v>1110</v>
       </c>
       <c r="AH144" s="1">
-        <v>1103</v>
+        <v>1003</v>
       </c>
       <c r="AI144" s="1">
-        <v>1104</v>
+        <v>1004</v>
       </c>
       <c r="AJ144" s="1">
         <v>1124</v>
@@ -5346,10 +5346,10 @@
         <v>1110</v>
       </c>
       <c r="AH145" s="1">
-        <v>1103</v>
+        <v>1003</v>
       </c>
       <c r="AI145" s="1">
-        <v>1104</v>
+        <v>1004</v>
       </c>
       <c r="AJ145" s="1">
         <v>1124</v>
